--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Nxph3</t>
+  </si>
+  <si>
+    <t>Nrxn1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Nxph3</t>
-  </si>
-  <si>
-    <t>Nrxn1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +534,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1733095</v>
+        <v>0.2406225</v>
       </c>
       <c r="H2">
-        <v>0.346619</v>
+        <v>0.481245</v>
       </c>
       <c r="I2">
-        <v>0.2863744144352554</v>
+        <v>0.8632367634159597</v>
       </c>
       <c r="J2">
-        <v>0.2381490252983398</v>
+        <v>0.8079854132982769</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +558,22 @@
         <v>0.028072</v>
       </c>
       <c r="O2">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P2">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q2">
-        <v>0.001621714761333333</v>
+        <v>0.00225158494</v>
       </c>
       <c r="R2">
-        <v>0.009730288568000001</v>
+        <v>0.01350950964</v>
       </c>
       <c r="S2">
-        <v>0.03116535205282609</v>
+        <v>0.03374729122756518</v>
       </c>
       <c r="T2">
-        <v>0.03686946812432439</v>
+        <v>0.04647255407465605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,46 +596,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1733095</v>
+        <v>0.2406225</v>
       </c>
       <c r="H3">
-        <v>0.346619</v>
+        <v>0.481245</v>
       </c>
       <c r="I3">
-        <v>0.2863744144352554</v>
+        <v>0.8632367634159597</v>
       </c>
       <c r="J3">
-        <v>0.2381490252983398</v>
+        <v>0.8079854132982769</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N3">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O3">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P3">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q3">
-        <v>0.013280013747</v>
+        <v>0.055342693755</v>
       </c>
       <c r="R3">
-        <v>0.053120054988</v>
+        <v>0.22137077502</v>
       </c>
       <c r="S3">
-        <v>0.2552090623824293</v>
+        <v>0.8294894721883945</v>
       </c>
       <c r="T3">
-        <v>0.2012795571740154</v>
+        <v>0.7615128592236209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +664,10 @@
         <v>0.114366</v>
       </c>
       <c r="I4">
-        <v>0.06299230813718119</v>
+        <v>0.1367632365840402</v>
       </c>
       <c r="J4">
-        <v>0.07857662571085236</v>
+        <v>0.1920145867017231</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +682,22 @@
         <v>0.028072</v>
       </c>
       <c r="O4">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P4">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q4">
-        <v>0.0003567202613333334</v>
+        <v>0.0003567202613333333</v>
       </c>
       <c r="R4">
-        <v>0.003210482352000001</v>
+        <v>0.003210482352</v>
       </c>
       <c r="S4">
-        <v>0.006855282318383216</v>
+        <v>0.005346608219003792</v>
       </c>
       <c r="T4">
-        <v>0.0121649811219422</v>
+        <v>0.01104402148448735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,288 +726,40 @@
         <v>0.114366</v>
       </c>
       <c r="I5">
-        <v>0.06299230813718119</v>
+        <v>0.1367632365840402</v>
       </c>
       <c r="J5">
-        <v>0.07857662571085236</v>
+        <v>0.1920145867017231</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N5">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O5">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P5">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q5">
-        <v>0.002921136372</v>
+        <v>0.008767983755999999</v>
       </c>
       <c r="R5">
-        <v>0.017526818232</v>
+        <v>0.052607902536</v>
       </c>
       <c r="S5">
-        <v>0.05613702581879798</v>
+        <v>0.1314166283650364</v>
       </c>
       <c r="T5">
-        <v>0.06641164458891016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.1867745</v>
-      </c>
-      <c r="H6">
-        <v>0.373549</v>
-      </c>
-      <c r="I6">
-        <v>0.3086238092484117</v>
-      </c>
-      <c r="J6">
-        <v>0.2566516268616825</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.009357333333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.028072</v>
-      </c>
-      <c r="O6">
-        <v>0.1088272921108742</v>
-      </c>
-      <c r="P6">
-        <v>0.1548167920407668</v>
-      </c>
-      <c r="Q6">
-        <v>0.001747711254666667</v>
-      </c>
-      <c r="R6">
-        <v>0.010486267528</v>
-      </c>
-      <c r="S6">
-        <v>0.03358669344144762</v>
-      </c>
-      <c r="T6">
-        <v>0.03973398154276959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.1867745</v>
-      </c>
-      <c r="H7">
-        <v>0.373549</v>
-      </c>
-      <c r="I7">
-        <v>0.3086238092484117</v>
-      </c>
-      <c r="J7">
-        <v>0.2566516268616825</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.076626</v>
-      </c>
-      <c r="N7">
-        <v>0.153252</v>
-      </c>
-      <c r="O7">
-        <v>0.8911727078891258</v>
-      </c>
-      <c r="P7">
-        <v>0.8451832079592332</v>
-      </c>
-      <c r="Q7">
-        <v>0.014311782837</v>
-      </c>
-      <c r="R7">
-        <v>0.057247131348</v>
-      </c>
-      <c r="S7">
-        <v>0.275037115806964</v>
-      </c>
-      <c r="T7">
-        <v>0.2169176453189129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.206979</v>
-      </c>
-      <c r="H8">
-        <v>0.6209370000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.3420094681791519</v>
-      </c>
-      <c r="J8">
-        <v>0.4266227221291252</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.009357333333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.028072</v>
-      </c>
-      <c r="O8">
-        <v>0.1088272921108742</v>
-      </c>
-      <c r="P8">
-        <v>0.1548167920407668</v>
-      </c>
-      <c r="Q8">
-        <v>0.001936771496</v>
-      </c>
-      <c r="R8">
-        <v>0.017430943464</v>
-      </c>
-      <c r="S8">
-        <v>0.03721996429821731</v>
-      </c>
-      <c r="T8">
-        <v>0.06604836125173062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.206979</v>
-      </c>
-      <c r="H9">
-        <v>0.6209370000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.3420094681791519</v>
-      </c>
-      <c r="J9">
-        <v>0.4266227221291252</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.076626</v>
-      </c>
-      <c r="N9">
-        <v>0.153252</v>
-      </c>
-      <c r="O9">
-        <v>0.8911727078891258</v>
-      </c>
-      <c r="P9">
-        <v>0.8451832079592332</v>
-      </c>
-      <c r="Q9">
-        <v>0.015859972854</v>
-      </c>
-      <c r="R9">
-        <v>0.09515983712400002</v>
-      </c>
-      <c r="S9">
-        <v>0.3047895038809346</v>
-      </c>
-      <c r="T9">
-        <v>0.3605743608773946</v>
+        <v>0.1809705652172358</v>
       </c>
     </row>
   </sheetData>
